--- a/xls/patchtest.xlsx
+++ b/xls/patchtest.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,6 +444,64 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>0.007135730891388262</v>
+      </c>
+      <c r="H2">
+        <v>0.004049313028953489</v>
+      </c>
+      <c r="I2">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>0.008718027338938863</v>
+      </c>
+      <c r="H3">
+        <v>0.01051427910205592</v>
+      </c>
+      <c r="I3">
+        <v>Inf</v>
+      </c>
+    </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
@@ -461,15 +519,421 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="G4">
-        <v>0.0071840406909344165</v>
+        <v>0.009772328103325262</v>
       </c>
       <c r="H4">
-        <v>0.004596739015709041</v>
+        <v>0.01572283645916128</v>
       </c>
       <c r="I4">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>64</v>
+      </c>
+      <c r="G5">
+        <v>0.013578070164855478</v>
+      </c>
+      <c r="H5">
+        <v>0.017020667578870552</v>
+      </c>
+      <c r="I5">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>81</v>
+      </c>
+      <c r="G6">
+        <v>0.014528417441194416</v>
+      </c>
+      <c r="H6">
+        <v>0.023658308171386328</v>
+      </c>
+      <c r="I6">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0.011486600647494793</v>
+      </c>
+      <c r="H7">
+        <v>0.015131785705207772</v>
+      </c>
+      <c r="I7">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>121</v>
+      </c>
+      <c r="G8">
+        <v>0.024159336353813544</v>
+      </c>
+      <c r="H8">
+        <v>0.06360328027104323</v>
+      </c>
+      <c r="I8">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>144</v>
+      </c>
+      <c r="G9">
+        <v>3038.9067844185356</v>
+      </c>
+      <c r="H9">
+        <v>45385.68863398064</v>
+      </c>
+      <c r="I9">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>169</v>
+      </c>
+      <c r="G10">
+        <v>605.4320540960407</v>
+      </c>
+      <c r="H10">
+        <v>2127.7584677628706</v>
+      </c>
+      <c r="I10">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>196</v>
+      </c>
+      <c r="G11">
+        <v>10916.062800029726</v>
+      </c>
+      <c r="H11">
+        <v>57876.71312295776</v>
+      </c>
+      <c r="I11">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>225</v>
+      </c>
+      <c r="G12">
+        <v>5477.801395190287</v>
+      </c>
+      <c r="H12">
+        <v>200658.97076454217</v>
+      </c>
+      <c r="I12">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>256</v>
+      </c>
+      <c r="G13">
+        <v>0.4841392144620163</v>
+      </c>
+      <c r="H13">
+        <v>1.917006135048702</v>
+      </c>
+      <c r="I13">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>289</v>
+      </c>
+      <c r="G14">
+        <v>0.4059831982738301</v>
+      </c>
+      <c r="H14">
+        <v>1.497237891700394</v>
+      </c>
+      <c r="I14">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>324</v>
+      </c>
+      <c r="G15">
+        <v>8.895392948267123</v>
+      </c>
+      <c r="H15">
+        <v>31.080055544227747</v>
+      </c>
+      <c r="I15">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>361</v>
+      </c>
+      <c r="G16">
+        <v>2.6360787549690734</v>
+      </c>
+      <c r="H16">
+        <v>11.11031562014206</v>
+      </c>
+      <c r="I16">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>0.9552421399422781</v>
+      </c>
+      <c r="H17">
+        <v>4.214435141109941</v>
+      </c>
+      <c r="I17">
+        <v>Inf</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>441</v>
+      </c>
+      <c r="G18">
+        <v>31.49041355683372</v>
+      </c>
+      <c r="H18">
+        <v>351.4158905227907</v>
+      </c>
+      <c r="I18">
         <v>Inf</v>
       </c>
     </row>

--- a/xls/patchtest.xlsx
+++ b/xls/patchtest.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>type w</t>
   </si>
@@ -54,10 +54,13 @@
     <t>L₂Q</t>
   </si>
   <si>
+    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+  </si>
+  <si>
     <t>tri3</t>
   </si>
   <si>
-    <t>ReproducingKernel{:Linear2D, :□, :CubicSpline}</t>
+    <t>PiecewisePolynomial{:Quadratic2D}</t>
   </si>
 </sst>
 </file>
@@ -449,25 +452,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="G2">
-        <v>0.007135730891388262</v>
+        <v>0.07756353782277829</v>
       </c>
       <c r="H2">
-        <v>0.004049313028953489</v>
+        <v>0.14643149860358123</v>
       </c>
       <c r="I2">
         <v>Inf</v>
@@ -478,25 +481,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
-        <v>36</v>
+        <v>192</v>
       </c>
       <c r="G3">
-        <v>0.008718027338938863</v>
+        <v>0.0368714176934366</v>
       </c>
       <c r="H3">
-        <v>0.01051427910205592</v>
+        <v>0.0767017291337298</v>
       </c>
       <c r="I3">
         <v>Inf</v>
@@ -510,22 +513,22 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="G4">
-        <v>0.009772328103325262</v>
+        <v>0.011502366232589791</v>
       </c>
       <c r="H4">
-        <v>0.01572283645916128</v>
+        <v>0.020546516642904553</v>
       </c>
       <c r="I4">
         <v>Inf</v>
@@ -536,25 +539,25 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="G5">
-        <v>0.013578070164855478</v>
+        <v>0.006014744920746941</v>
       </c>
       <c r="H5">
-        <v>0.017020667578870552</v>
+        <v>0.006507079565514267</v>
       </c>
       <c r="I5">
         <v>Inf</v>
@@ -565,25 +568,25 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="G6">
-        <v>0.014528417441194416</v>
+        <v>0.006143559800999615</v>
       </c>
       <c r="H6">
-        <v>0.023658308171386328</v>
+        <v>0.010691363345398526</v>
       </c>
       <c r="I6">
         <v>Inf</v>
@@ -594,25 +597,25 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="G7">
-        <v>0.011486600647494793</v>
+        <v>0.00875350555204388</v>
       </c>
       <c r="H7">
-        <v>0.015131785705207772</v>
+        <v>0.0164763742547567</v>
       </c>
       <c r="I7">
         <v>Inf</v>
@@ -623,25 +626,25 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="G8">
-        <v>0.024159336353813544</v>
+        <v>0.003750092510906379</v>
       </c>
       <c r="H8">
-        <v>0.06360328027104323</v>
+        <v>0.005238626988550806</v>
       </c>
       <c r="I8">
         <v>Inf</v>
@@ -652,25 +655,25 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="G9">
-        <v>3038.9067844185356</v>
+        <v>0.008609156150593648</v>
       </c>
       <c r="H9">
-        <v>45385.68863398064</v>
+        <v>0.017223171819025006</v>
       </c>
       <c r="I9">
         <v>Inf</v>
@@ -681,25 +684,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="G10">
-        <v>605.4320540960407</v>
+        <v>0.0036324074490810127</v>
       </c>
       <c r="H10">
-        <v>2127.7584677628706</v>
+        <v>0.006991806510705079</v>
       </c>
       <c r="I10">
         <v>Inf</v>
@@ -710,25 +713,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G11">
-        <v>10916.062800029726</v>
+        <v>0.002215458260924156</v>
       </c>
       <c r="H11">
-        <v>57876.71312295776</v>
+        <v>0.004265500788558478</v>
       </c>
       <c r="I11">
         <v>Inf</v>
@@ -739,25 +742,25 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G12">
-        <v>5477.801395190287</v>
+        <v>0.0043041211707207086</v>
       </c>
       <c r="H12">
-        <v>200658.97076454217</v>
+        <v>0.009105581974319014</v>
       </c>
       <c r="I12">
         <v>Inf</v>
@@ -768,25 +771,25 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>256</v>
+        <v>192</v>
       </c>
       <c r="G13">
-        <v>0.4841392144620163</v>
+        <v>1.0221903120863174</v>
       </c>
       <c r="H13">
-        <v>1.917006135048702</v>
+        <v>0.003648086026359315</v>
       </c>
       <c r="I13">
         <v>Inf</v>
@@ -797,25 +800,25 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>225</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="G14">
-        <v>0.4059831982738301</v>
+        <v>1.7011444214222368e12</v>
       </c>
       <c r="H14">
-        <v>1.497237891700394</v>
+        <v>0.00374472230623595</v>
       </c>
       <c r="I14">
         <v>Inf</v>
@@ -826,25 +829,25 @@
         <v>9</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15">
-        <v>324</v>
+        <v>192</v>
       </c>
       <c r="G15">
-        <v>8.895392948267123</v>
+        <v>5.597021114244363e13</v>
       </c>
       <c r="H15">
-        <v>31.080055544227747</v>
+        <v>0.014644006524947137</v>
       </c>
       <c r="I15">
         <v>Inf</v>
@@ -855,25 +858,25 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16">
-        <v>361</v>
+        <v>192</v>
       </c>
       <c r="G16">
-        <v>2.6360787549690734</v>
+        <v>1.6394453147165965e15</v>
       </c>
       <c r="H16">
-        <v>11.11031562014206</v>
+        <v>0.005418837700909211</v>
       </c>
       <c r="I16">
         <v>Inf</v>
@@ -884,25 +887,25 @@
         <v>9</v>
       </c>
       <c r="B17">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>400</v>
+        <v>192</v>
       </c>
       <c r="G17">
-        <v>0.9552421399422781</v>
+        <v>4.2850744012695494e14</v>
       </c>
       <c r="H17">
-        <v>4.214435141109941</v>
+        <v>0.004441352141055031</v>
       </c>
       <c r="I17">
         <v>Inf</v>
@@ -913,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>361</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="G18">
-        <v>31.49041355683372</v>
+        <v>2.3705174299016184e14</v>
       </c>
       <c r="H18">
-        <v>351.4158905227907</v>
+        <v>0.003634456646455193</v>
       </c>
       <c r="I18">
         <v>Inf</v>
